--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam1-Spn.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam1-Spn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.316642</v>
+        <v>35.160799</v>
       </c>
       <c r="H2">
-        <v>84.949926</v>
+        <v>105.482397</v>
       </c>
       <c r="I2">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="J2">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01649366666666667</v>
+        <v>0.09931666666666666</v>
       </c>
       <c r="N2">
-        <v>0.049481</v>
+        <v>0.29795</v>
       </c>
       <c r="O2">
-        <v>0.004545751865760082</v>
+        <v>0.01356140958552017</v>
       </c>
       <c r="P2">
-        <v>0.004545751865760082</v>
+        <v>0.01356140958552017</v>
       </c>
       <c r="Q2">
-        <v>0.4670452542673333</v>
+        <v>3.492053354016666</v>
       </c>
       <c r="R2">
-        <v>4.203407288406</v>
+        <v>31.42848018615</v>
       </c>
       <c r="S2">
-        <v>0.00108305983548753</v>
+        <v>0.00303632577706402</v>
       </c>
       <c r="T2">
-        <v>0.00108305983548753</v>
+        <v>0.00303632577706402</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.316642</v>
+        <v>35.160799</v>
       </c>
       <c r="H3">
-        <v>84.949926</v>
+        <v>105.482397</v>
       </c>
       <c r="I3">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="J3">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.09931666666666666</v>
+        <v>4.518932666666667</v>
       </c>
       <c r="N3">
-        <v>0.29795</v>
+        <v>13.556798</v>
       </c>
       <c r="O3">
-        <v>0.02737225942085278</v>
+        <v>0.6170474587889268</v>
       </c>
       <c r="P3">
-        <v>0.02737225942085278</v>
+        <v>0.6170474587889268</v>
       </c>
       <c r="Q3">
-        <v>2.812314494633334</v>
+        <v>158.8892831872007</v>
       </c>
       <c r="R3">
-        <v>25.3108304517</v>
+        <v>1430.003548684806</v>
       </c>
       <c r="S3">
-        <v>0.006521648268699292</v>
+        <v>0.1381535667791574</v>
       </c>
       <c r="T3">
-        <v>0.006521648268699292</v>
+        <v>0.1381535667791574</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.316642</v>
+        <v>35.160799</v>
       </c>
       <c r="H4">
-        <v>84.949926</v>
+        <v>105.482397</v>
       </c>
       <c r="I4">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="J4">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7543926666666666</v>
+        <v>0.1710376666666667</v>
       </c>
       <c r="N4">
-        <v>2.263178</v>
+        <v>0.513113</v>
       </c>
       <c r="O4">
-        <v>0.2079150707553843</v>
+        <v>0.02335470903391513</v>
       </c>
       <c r="P4">
-        <v>0.2079150707553843</v>
+        <v>0.02335470903391513</v>
       </c>
       <c r="Q4">
-        <v>21.36186706942533</v>
+        <v>6.013821019095666</v>
       </c>
       <c r="R4">
-        <v>192.256803624828</v>
+        <v>54.124389171861</v>
       </c>
       <c r="S4">
-        <v>0.04953734145144596</v>
+        <v>0.005228992208245176</v>
       </c>
       <c r="T4">
-        <v>0.04953734145144597</v>
+        <v>0.005228992208245177</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.316642</v>
+        <v>35.160799</v>
       </c>
       <c r="H5">
-        <v>84.949926</v>
+        <v>105.482397</v>
       </c>
       <c r="I5">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="J5">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3226226666666667</v>
+        <v>2.534189666666667</v>
       </c>
       <c r="N5">
-        <v>0.9678680000000001</v>
+        <v>7.602569</v>
       </c>
       <c r="O5">
-        <v>0.08891671079423373</v>
+        <v>0.3460364225916379</v>
       </c>
       <c r="P5">
-        <v>0.08891671079423373</v>
+        <v>0.3460364225916379</v>
       </c>
       <c r="Q5">
-        <v>9.135590553085335</v>
+        <v>89.10413349754366</v>
       </c>
       <c r="R5">
-        <v>82.22031497776801</v>
+        <v>801.9372014778929</v>
       </c>
       <c r="S5">
-        <v>0.02118508027027839</v>
+        <v>0.07747567117505565</v>
       </c>
       <c r="T5">
-        <v>0.02118508027027839</v>
+        <v>0.07747567117505565</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.316642</v>
+        <v>32.208719</v>
       </c>
       <c r="H6">
-        <v>84.949926</v>
+        <v>96.62615700000001</v>
       </c>
       <c r="I6">
-        <v>0.2382575792676785</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="J6">
-        <v>0.2382575792676785</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.435543666666667</v>
+        <v>0.09931666666666666</v>
       </c>
       <c r="N6">
-        <v>7.306631</v>
+        <v>0.29795</v>
       </c>
       <c r="O6">
-        <v>0.671250207163769</v>
+        <v>0.01356140958552017</v>
       </c>
       <c r="P6">
-        <v>0.671250207163769</v>
+        <v>0.01356140958552017</v>
       </c>
       <c r="Q6">
-        <v>68.96641808436733</v>
+        <v>3.198862608683334</v>
       </c>
       <c r="R6">
-        <v>620.6977627593061</v>
+        <v>28.78976347815</v>
       </c>
       <c r="S6">
-        <v>0.1599304494417673</v>
+        <v>0.002781397651000811</v>
       </c>
       <c r="T6">
-        <v>0.1599304494417673</v>
+        <v>0.002781397651000812</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>96.62615700000001</v>
       </c>
       <c r="I7">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="J7">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01649366666666667</v>
+        <v>4.518932666666667</v>
       </c>
       <c r="N7">
-        <v>0.049481</v>
+        <v>13.556798</v>
       </c>
       <c r="O7">
-        <v>0.004545751865760082</v>
+        <v>0.6170474587889268</v>
       </c>
       <c r="P7">
-        <v>0.004545751865760082</v>
+        <v>0.6170474587889268</v>
       </c>
       <c r="Q7">
-        <v>0.5312398749463334</v>
+        <v>145.5490324405874</v>
       </c>
       <c r="R7">
-        <v>4.781158874517</v>
+        <v>1309.941291965286</v>
       </c>
       <c r="S7">
-        <v>0.001231924671767369</v>
+        <v>0.1265542745839654</v>
       </c>
       <c r="T7">
-        <v>0.001231924671767369</v>
+        <v>0.1265542745839654</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>96.62615700000001</v>
       </c>
       <c r="I8">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="J8">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.09931666666666666</v>
+        <v>0.1710376666666667</v>
       </c>
       <c r="N8">
-        <v>0.29795</v>
+        <v>0.513113</v>
       </c>
       <c r="O8">
-        <v>0.02737225942085278</v>
+        <v>0.02335470903391513</v>
       </c>
       <c r="P8">
-        <v>0.02737225942085278</v>
+        <v>0.02335470903391513</v>
       </c>
       <c r="Q8">
-        <v>3.198862608683334</v>
+        <v>5.508904144082334</v>
       </c>
       <c r="R8">
-        <v>28.78976347815</v>
+        <v>49.58013729674101</v>
       </c>
       <c r="S8">
-        <v>0.007418038357209587</v>
+        <v>0.004789969098499678</v>
       </c>
       <c r="T8">
-        <v>0.007418038357209587</v>
+        <v>0.00478996909849968</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,55 +980,55 @@
         <v>96.62615700000001</v>
       </c>
       <c r="I9">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="J9">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7543926666666666</v>
+        <v>2.534189666666667</v>
       </c>
       <c r="N9">
-        <v>2.263178</v>
+        <v>7.602569</v>
       </c>
       <c r="O9">
-        <v>0.2079150707553843</v>
+        <v>0.3460364225916379</v>
       </c>
       <c r="P9">
-        <v>0.2079150707553843</v>
+        <v>0.3460364225916379</v>
       </c>
       <c r="Q9">
-        <v>24.29802141632733</v>
+        <v>81.62300286637034</v>
       </c>
       <c r="R9">
-        <v>218.682192746946</v>
+        <v>734.607025797333</v>
       </c>
       <c r="S9">
-        <v>0.05634616953580424</v>
+        <v>0.07097085939980395</v>
       </c>
       <c r="T9">
-        <v>0.05634616953580426</v>
+        <v>0.07097085939980395</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>32.208719</v>
+        <v>51.53356533333334</v>
       </c>
       <c r="H10">
-        <v>96.62615700000001</v>
+        <v>154.600696</v>
       </c>
       <c r="I10">
-        <v>0.2710057011792882</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="J10">
-        <v>0.2710057011792882</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.3226226666666667</v>
+        <v>0.09931666666666666</v>
       </c>
       <c r="N10">
-        <v>0.9678680000000001</v>
+        <v>0.29795</v>
       </c>
       <c r="O10">
-        <v>0.08891671079423373</v>
+        <v>0.01356140958552017</v>
       </c>
       <c r="P10">
-        <v>0.08891671079423373</v>
+        <v>0.01356140958552017</v>
       </c>
       <c r="Q10">
-        <v>10.39126281369733</v>
+        <v>5.118141930355556</v>
       </c>
       <c r="R10">
-        <v>93.52136532327602</v>
+        <v>46.0632773732</v>
       </c>
       <c r="S10">
-        <v>0.0240969355553473</v>
+        <v>0.004450202989005249</v>
       </c>
       <c r="T10">
-        <v>0.0240969355553473</v>
+        <v>0.00445020298900525</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>32.208719</v>
+        <v>51.53356533333334</v>
       </c>
       <c r="H11">
-        <v>96.62615700000001</v>
+        <v>154.600696</v>
       </c>
       <c r="I11">
-        <v>0.2710057011792882</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="J11">
-        <v>0.2710057011792882</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.435543666666667</v>
+        <v>4.518932666666667</v>
       </c>
       <c r="N11">
-        <v>7.306631</v>
+        <v>13.556798</v>
       </c>
       <c r="O11">
-        <v>0.671250207163769</v>
+        <v>0.6170474587889268</v>
       </c>
       <c r="P11">
-        <v>0.671250207163769</v>
+        <v>0.6170474587889268</v>
       </c>
       <c r="Q11">
-        <v>78.44574157189635</v>
+        <v>232.8767118146009</v>
       </c>
       <c r="R11">
-        <v>706.0116741470671</v>
+        <v>2095.890406331408</v>
       </c>
       <c r="S11">
-        <v>0.1819126330591597</v>
+        <v>0.2024853263330773</v>
       </c>
       <c r="T11">
-        <v>0.1819126330591597</v>
+        <v>0.2024853263330773</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.02080233333333</v>
+        <v>51.53356533333334</v>
       </c>
       <c r="H12">
-        <v>57.062407</v>
+        <v>154.600696</v>
       </c>
       <c r="I12">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="J12">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.01649366666666667</v>
+        <v>0.1710376666666667</v>
       </c>
       <c r="N12">
-        <v>0.049481</v>
+        <v>0.513113</v>
       </c>
       <c r="O12">
-        <v>0.004545751865760082</v>
+        <v>0.02335470903391513</v>
       </c>
       <c r="P12">
-        <v>0.004545751865760082</v>
+        <v>0.02335470903391513</v>
       </c>
       <c r="Q12">
-        <v>0.3137227734185555</v>
+        <v>8.814180769627557</v>
       </c>
       <c r="R12">
-        <v>2.823504960767</v>
+        <v>79.32762692664801</v>
       </c>
       <c r="S12">
-        <v>0.0007275109473072701</v>
+        <v>0.00766389329181893</v>
       </c>
       <c r="T12">
-        <v>0.0007275109473072701</v>
+        <v>0.007663893291818932</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.02080233333333</v>
+        <v>51.53356533333334</v>
       </c>
       <c r="H13">
-        <v>57.062407</v>
+        <v>154.600696</v>
       </c>
       <c r="I13">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="J13">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.09931666666666666</v>
+        <v>2.534189666666667</v>
       </c>
       <c r="N13">
-        <v>0.29795</v>
+        <v>7.602569</v>
       </c>
       <c r="O13">
-        <v>0.02737225942085278</v>
+        <v>0.3460364225916379</v>
       </c>
       <c r="P13">
-        <v>0.02737225942085278</v>
+        <v>0.3460364225916379</v>
       </c>
       <c r="Q13">
-        <v>1.889082685072222</v>
+        <v>130.5958287542249</v>
       </c>
       <c r="R13">
-        <v>17.00174416565</v>
+        <v>1175.362458788024</v>
       </c>
       <c r="S13">
-        <v>0.004380709499609974</v>
+        <v>0.1135525265578743</v>
       </c>
       <c r="T13">
-        <v>0.004380709499609974</v>
+        <v>0.1135525265578743</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,61 +1284,61 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.02080233333333</v>
+        <v>0.5955593333333333</v>
       </c>
       <c r="H14">
-        <v>57.062407</v>
+        <v>1.786678</v>
       </c>
       <c r="I14">
-        <v>0.1600419399895302</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="J14">
-        <v>0.1600419399895302</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.7543926666666666</v>
+        <v>0.09931666666666666</v>
       </c>
       <c r="N14">
-        <v>2.263178</v>
+        <v>0.29795</v>
       </c>
       <c r="O14">
-        <v>0.2079150707553843</v>
+        <v>0.01356140958552017</v>
       </c>
       <c r="P14">
-        <v>0.2079150707553843</v>
+        <v>0.01356140958552017</v>
       </c>
       <c r="Q14">
-        <v>14.34915379438289</v>
+        <v>0.05914896778888889</v>
       </c>
       <c r="R14">
-        <v>129.142384149446</v>
+        <v>0.5323407100999999</v>
       </c>
       <c r="S14">
-        <v>0.03327513127675214</v>
+        <v>5.142977995383617E-05</v>
       </c>
       <c r="T14">
-        <v>0.03327513127675214</v>
+        <v>5.142977995383618E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1346,51 +1346,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.02080233333333</v>
+        <v>0.5955593333333333</v>
       </c>
       <c r="H15">
-        <v>57.062407</v>
+        <v>1.786678</v>
       </c>
       <c r="I15">
-        <v>0.1600419399895302</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="J15">
-        <v>0.1600419399895302</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.3226226666666667</v>
+        <v>4.518932666666667</v>
       </c>
       <c r="N15">
-        <v>0.9678680000000001</v>
+        <v>13.556798</v>
       </c>
       <c r="O15">
-        <v>0.08891671079423373</v>
+        <v>0.6170474587889268</v>
       </c>
       <c r="P15">
-        <v>0.08891671079423373</v>
+        <v>0.6170474587889268</v>
       </c>
       <c r="Q15">
-        <v>6.136541970919556</v>
+        <v>2.691292526338223</v>
       </c>
       <c r="R15">
-        <v>55.228877738276</v>
+        <v>24.221632737044</v>
       </c>
       <c r="S15">
-        <v>0.01423040289299717</v>
+        <v>0.002340067588584012</v>
       </c>
       <c r="T15">
-        <v>0.01423040289299717</v>
+        <v>0.002340067588584012</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.02080233333333</v>
+        <v>0.5955593333333333</v>
       </c>
       <c r="H16">
-        <v>57.062407</v>
+        <v>1.786678</v>
       </c>
       <c r="I16">
-        <v>0.1600419399895302</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="J16">
-        <v>0.1600419399895302</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.435543666666667</v>
+        <v>0.1710376666666667</v>
       </c>
       <c r="N16">
-        <v>7.306631</v>
+        <v>0.513113</v>
       </c>
       <c r="O16">
-        <v>0.671250207163769</v>
+        <v>0.02335470903391513</v>
       </c>
       <c r="P16">
-        <v>0.671250207163769</v>
+        <v>0.02335470903391513</v>
       </c>
       <c r="Q16">
-        <v>46.32599465786856</v>
+        <v>0.1018630787348889</v>
       </c>
       <c r="R16">
-        <v>416.933951920817</v>
+        <v>0.916767708614</v>
       </c>
       <c r="S16">
-        <v>0.1074281853728636</v>
+        <v>8.856952066270427E-05</v>
       </c>
       <c r="T16">
-        <v>0.1074281853728636</v>
+        <v>8.85695206627043E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3684403333333333</v>
+        <v>0.5955593333333333</v>
       </c>
       <c r="H17">
-        <v>1.105321</v>
+        <v>1.786678</v>
       </c>
       <c r="I17">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="J17">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.01649366666666667</v>
+        <v>2.534189666666667</v>
       </c>
       <c r="N17">
-        <v>0.049481</v>
+        <v>7.602569</v>
       </c>
       <c r="O17">
-        <v>0.004545751865760082</v>
+        <v>0.3460364225916379</v>
       </c>
       <c r="P17">
-        <v>0.004545751865760082</v>
+        <v>0.3460364225916379</v>
       </c>
       <c r="Q17">
-        <v>0.006076932044555556</v>
+        <v>1.509260308420222</v>
       </c>
       <c r="R17">
-        <v>0.054692388401</v>
+        <v>13.583342775782</v>
       </c>
       <c r="S17">
-        <v>1.409216978506741E-05</v>
+        <v>0.00131229552191259</v>
       </c>
       <c r="T17">
-        <v>1.409216978506741E-05</v>
+        <v>0.00131229552191259</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3684403333333333</v>
+        <v>37.54313466666667</v>
       </c>
       <c r="H18">
-        <v>1.105321</v>
+        <v>112.629404</v>
       </c>
       <c r="I18">
-        <v>0.003100074575388443</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="J18">
-        <v>0.003100074575388443</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,27 +1556,27 @@
         <v>0.29795</v>
       </c>
       <c r="O18">
-        <v>0.02737225942085278</v>
+        <v>0.01356140958552017</v>
       </c>
       <c r="P18">
-        <v>0.02737225942085278</v>
+        <v>0.01356140958552017</v>
       </c>
       <c r="Q18">
-        <v>0.03659226577222222</v>
+        <v>3.728658991311111</v>
       </c>
       <c r="R18">
-        <v>0.32933039195</v>
+        <v>33.5579309218</v>
       </c>
       <c r="S18">
-        <v>8.48560455015225E-05</v>
+        <v>0.003242053388496257</v>
       </c>
       <c r="T18">
-        <v>8.48560455015225E-05</v>
+        <v>0.003242053388496257</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1594,51 +1594,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3684403333333333</v>
+        <v>37.54313466666667</v>
       </c>
       <c r="H19">
-        <v>1.105321</v>
+        <v>112.629404</v>
       </c>
       <c r="I19">
-        <v>0.003100074575388443</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="J19">
-        <v>0.003100074575388443</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7543926666666666</v>
+        <v>4.518932666666667</v>
       </c>
       <c r="N19">
-        <v>2.263178</v>
+        <v>13.556798</v>
       </c>
       <c r="O19">
-        <v>0.2079150707553843</v>
+        <v>0.6170474587889268</v>
       </c>
       <c r="P19">
-        <v>0.2079150707553843</v>
+        <v>0.6170474587889268</v>
       </c>
       <c r="Q19">
-        <v>0.2779486855708889</v>
+        <v>169.6548976542658</v>
       </c>
       <c r="R19">
-        <v>2.501538170138</v>
+        <v>1526.894078888392</v>
       </c>
       <c r="S19">
-        <v>0.000644552224688856</v>
+        <v>0.1475142235041426</v>
       </c>
       <c r="T19">
-        <v>0.0006445522246888561</v>
+        <v>0.1475142235041426</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3684403333333333</v>
+        <v>37.54313466666667</v>
       </c>
       <c r="H20">
-        <v>1.105321</v>
+        <v>112.629404</v>
       </c>
       <c r="I20">
-        <v>0.003100074575388443</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="J20">
-        <v>0.003100074575388443</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,33 +1674,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.3226226666666667</v>
+        <v>0.1710376666666667</v>
       </c>
       <c r="N20">
-        <v>0.9678680000000001</v>
+        <v>0.513113</v>
       </c>
       <c r="O20">
-        <v>0.08891671079423373</v>
+        <v>0.02335470903391513</v>
       </c>
       <c r="P20">
-        <v>0.08891671079423373</v>
+        <v>0.02335470903391513</v>
       </c>
       <c r="Q20">
-        <v>0.1188672028475555</v>
+        <v>6.421290152739111</v>
       </c>
       <c r="R20">
-        <v>1.069804825628</v>
+        <v>57.791611374652</v>
       </c>
       <c r="S20">
-        <v>0.0002756484344603711</v>
+        <v>0.005583284914688638</v>
       </c>
       <c r="T20">
-        <v>0.0002756484344603711</v>
+        <v>0.00558328491468864</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3684403333333333</v>
+        <v>37.54313466666667</v>
       </c>
       <c r="H21">
-        <v>1.105321</v>
+        <v>112.629404</v>
       </c>
       <c r="I21">
-        <v>0.003100074575388443</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="J21">
-        <v>0.003100074575388443</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.435543666666667</v>
+        <v>2.534189666666667</v>
       </c>
       <c r="N21">
-        <v>7.306631</v>
+        <v>7.602569</v>
       </c>
       <c r="O21">
-        <v>0.671250207163769</v>
+        <v>0.3460364225916379</v>
       </c>
       <c r="P21">
-        <v>0.671250207163769</v>
+        <v>0.3460364225916379</v>
       </c>
       <c r="Q21">
-        <v>0.8973525203945556</v>
+        <v>95.14142392654178</v>
       </c>
       <c r="R21">
-        <v>8.076172683551</v>
+        <v>856.2728153388759</v>
       </c>
       <c r="S21">
-        <v>0.002080925700952626</v>
+        <v>0.08272506993699144</v>
       </c>
       <c r="T21">
-        <v>0.002080925700952626</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>38.93425766666667</v>
-      </c>
-      <c r="H22">
-        <v>116.802773</v>
-      </c>
-      <c r="I22">
-        <v>0.3275947049881145</v>
-      </c>
-      <c r="J22">
-        <v>0.3275947049881145</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M22">
-        <v>0.01649366666666667</v>
-      </c>
-      <c r="N22">
-        <v>0.049481</v>
-      </c>
-      <c r="O22">
-        <v>0.004545751865760082</v>
-      </c>
-      <c r="P22">
-        <v>0.004545751865760082</v>
-      </c>
-      <c r="Q22">
-        <v>0.6421686678681111</v>
-      </c>
-      <c r="R22">
-        <v>5.779518010813</v>
-      </c>
-      <c r="S22">
-        <v>0.001489164241412845</v>
-      </c>
-      <c r="T22">
-        <v>0.001489164241412845</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>38.93425766666667</v>
-      </c>
-      <c r="H23">
-        <v>116.802773</v>
-      </c>
-      <c r="I23">
-        <v>0.3275947049881145</v>
-      </c>
-      <c r="J23">
-        <v>0.3275947049881145</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M23">
-        <v>0.09931666666666666</v>
-      </c>
-      <c r="N23">
-        <v>0.29795</v>
-      </c>
-      <c r="O23">
-        <v>0.02737225942085278</v>
-      </c>
-      <c r="P23">
-        <v>0.02737225942085278</v>
-      </c>
-      <c r="Q23">
-        <v>3.866820690594444</v>
-      </c>
-      <c r="R23">
-        <v>34.80138621535</v>
-      </c>
-      <c r="S23">
-        <v>0.008967007249832406</v>
-      </c>
-      <c r="T23">
-        <v>0.008967007249832406</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>38.93425766666667</v>
-      </c>
-      <c r="H24">
-        <v>116.802773</v>
-      </c>
-      <c r="I24">
-        <v>0.3275947049881145</v>
-      </c>
-      <c r="J24">
-        <v>0.3275947049881145</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.7543926666666666</v>
-      </c>
-      <c r="N24">
-        <v>2.263178</v>
-      </c>
-      <c r="O24">
-        <v>0.2079150707553843</v>
-      </c>
-      <c r="P24">
-        <v>0.2079150707553843</v>
-      </c>
-      <c r="Q24">
-        <v>29.37171846584378</v>
-      </c>
-      <c r="R24">
-        <v>264.345466192594</v>
-      </c>
-      <c r="S24">
-        <v>0.06811187626669307</v>
-      </c>
-      <c r="T24">
-        <v>0.06811187626669307</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>38.93425766666667</v>
-      </c>
-      <c r="H25">
-        <v>116.802773</v>
-      </c>
-      <c r="I25">
-        <v>0.3275947049881145</v>
-      </c>
-      <c r="J25">
-        <v>0.3275947049881145</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M25">
-        <v>0.3226226666666667</v>
-      </c>
-      <c r="N25">
-        <v>0.9678680000000001</v>
-      </c>
-      <c r="O25">
-        <v>0.08891671079423373</v>
-      </c>
-      <c r="P25">
-        <v>0.08891671079423373</v>
-      </c>
-      <c r="Q25">
-        <v>12.56107403310711</v>
-      </c>
-      <c r="R25">
-        <v>113.049666297964</v>
-      </c>
-      <c r="S25">
-        <v>0.02912864364115049</v>
-      </c>
-      <c r="T25">
-        <v>0.02912864364115049</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>38.93425766666667</v>
-      </c>
-      <c r="H26">
-        <v>116.802773</v>
-      </c>
-      <c r="I26">
-        <v>0.3275947049881145</v>
-      </c>
-      <c r="J26">
-        <v>0.3275947049881145</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>2.435543666666667</v>
-      </c>
-      <c r="N26">
-        <v>7.306631</v>
-      </c>
-      <c r="O26">
-        <v>0.671250207163769</v>
-      </c>
-      <c r="P26">
-        <v>0.671250207163769</v>
-      </c>
-      <c r="Q26">
-        <v>94.82608467641812</v>
-      </c>
-      <c r="R26">
-        <v>853.434762087763</v>
-      </c>
-      <c r="S26">
-        <v>0.2198980135890257</v>
-      </c>
-      <c r="T26">
-        <v>0.2198980135890257</v>
+        <v>0.08272506993699144</v>
       </c>
     </row>
   </sheetData>
